--- a/Data/World_Cup_Database.xlsx
+++ b/Data/World_Cup_Database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lahor\Desktop\DSTI\Survival Analysis\Project\FIFA_World_Cup_Survival_Analysis_with_R\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16469518-5EC8-4A4C-9FF9-07700DCE4876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1479424B-F48C-4E25-9AAA-EC3219F7637C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,13 +18,27 @@
     <sheet name="2014" sheetId="3" r:id="rId3"/>
     <sheet name="2010" sheetId="4" r:id="rId4"/>
     <sheet name="2006" sheetId="5" r:id="rId5"/>
+    <sheet name="Sources" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="88">
   <si>
     <t>Year</t>
   </si>
@@ -170,121 +184,13 @@
     <t>New Zealand</t>
   </si>
   <si>
-    <t>Brésil</t>
-  </si>
-  <si>
-    <t>Allemagne</t>
-  </si>
-  <si>
-    <t>Espagne</t>
-  </si>
-  <si>
-    <t>Argentine</t>
-  </si>
-  <si>
-    <t>Belgique</t>
-  </si>
-  <si>
-    <t>Italie</t>
-  </si>
-  <si>
-    <t>Angleterre</t>
-  </si>
-  <si>
     <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Pologne</t>
-  </si>
-  <si>
-    <t>Croatie</t>
-  </si>
-  <si>
-    <t>Colombie</t>
-  </si>
-  <si>
-    <t>Mexique</t>
-  </si>
-  <si>
-    <t>Pays-Bas</t>
-  </si>
-  <si>
-    <t>Russie</t>
   </si>
   <si>
     <t>Chili</t>
   </si>
   <si>
-    <t>Danemark</t>
-  </si>
-  <si>
-    <t>Serbie</t>
-  </si>
-  <si>
-    <t>Suisse</t>
-  </si>
-  <si>
-    <t>Suède</t>
-  </si>
-  <si>
-    <t>Autriche</t>
-  </si>
-  <si>
-    <t>Turquie</t>
-  </si>
-  <si>
-    <t>Pérou</t>
-  </si>
-  <si>
-    <t>Sénégal</t>
-  </si>
-  <si>
-    <t>Maroc</t>
-  </si>
-  <si>
-    <t>Égypte</t>
-  </si>
-  <si>
-    <t>Japon</t>
-  </si>
-  <si>
-    <t>Etats-Unis</t>
-  </si>
-  <si>
-    <t>Pays de Galles</t>
-  </si>
-  <si>
-    <t>Islande</t>
-  </si>
-  <si>
-    <t>Irlande</t>
-  </si>
-  <si>
     <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Grèce</t>
-  </si>
-  <si>
-    <t>RI Iran</t>
-  </si>
-  <si>
-    <t>Ecosse</t>
-  </si>
-  <si>
-    <t>Tunisie</t>
-  </si>
-  <si>
-    <t>Corée du Sud</t>
-  </si>
-  <si>
-    <t>Irlande du Nord</t>
-  </si>
-  <si>
-    <t>Norvège</t>
-  </si>
-  <si>
-    <t>Rép. tchèque</t>
   </si>
   <si>
     <t>Costa Rica</t>
@@ -293,55 +199,10 @@
     <t>Roumanie</t>
   </si>
   <si>
-    <t>Arabie saoudite</t>
-  </si>
-  <si>
-    <t>Australie</t>
-  </si>
-  <si>
-    <t>Chine</t>
-  </si>
-  <si>
     <t>Panama</t>
   </si>
   <si>
-    <t>Nouvelle-Zélande</t>
-  </si>
-  <si>
-    <t>Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t>Cameroun</t>
-  </si>
-  <si>
     <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Slovénie</t>
-  </si>
-  <si>
-    <t>Équateur</t>
-  </si>
-  <si>
-    <t>Vénézuela</t>
-  </si>
-  <si>
-    <t>Hongrie</t>
-  </si>
-  <si>
-    <t>Finlande</t>
-  </si>
-  <si>
-    <t>Afrique du Sud</t>
-  </si>
-  <si>
-    <t>Bulgarie</t>
-  </si>
-  <si>
-    <t>Bolivie</t>
-  </si>
-  <si>
-    <t>Inde</t>
   </si>
   <si>
     <t>Netherlands</t>
@@ -380,14 +241,74 @@
     <t>Korea Republic</t>
   </si>
   <si>
-    <t>République tchèque</t>
+    <t>FIFA Total Score Order</t>
+  </si>
+  <si>
+    <t>Championship coefficients</t>
+  </si>
+  <si>
+    <t>https://www.fifa.com/fr/fifa-world-ranking/men?dateId=id12210</t>
+  </si>
+  <si>
+    <t>https://www.fifaindex.com/teams/?type=1</t>
+  </si>
+  <si>
+    <t>https://fr.uefa.com/nationalassociations/uefarankings/country/#/yr/2018</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Pero</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>South correa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia </t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Equator</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Ivory Coast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,6 +439,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -864,8 +791,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1221,18 +1157,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" customWidth="1"/>
+    <col min="11" max="11" width="7.88671875" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1252,28 +1191,31 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -1293,10 +1235,13 @@
         <v>85</v>
       </c>
       <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1759.78</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -1316,10 +1261,13 @@
         <v>85</v>
       </c>
       <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1650.21</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -1339,10 +1287,13 @@
         <v>84</v>
       </c>
       <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1728.47</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -1362,10 +1313,13 @@
         <v>84</v>
       </c>
       <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1676.56</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -1384,8 +1338,14 @@
       <c r="F6">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>1726.14</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2022</v>
       </c>
@@ -1405,10 +1365,13 @@
         <v>84</v>
       </c>
       <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1715.22</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -1428,10 +1391,13 @@
         <v>83</v>
       </c>
       <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1773.88</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -1451,10 +1417,13 @@
         <v>82</v>
       </c>
       <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1816.71</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -1474,10 +1443,13 @@
         <v>82</v>
       </c>
       <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1694.51</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -1497,10 +1469,13 @@
         <v>80</v>
       </c>
       <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1841.3</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -1520,10 +1495,13 @@
         <v>80</v>
       </c>
       <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1645.64</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2022</v>
       </c>
@@ -1542,8 +1520,14 @@
       <c r="F13">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>1644.89</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -1562,8 +1546,14 @@
       <c r="F14">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>1666.57</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2022</v>
       </c>
@@ -1582,8 +1572,14 @@
       <c r="F15">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>1548.59</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -1602,8 +1598,14 @@
       <c r="F16">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>1492.21</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2022</v>
       </c>
@@ -1622,8 +1624,14 @@
       <c r="F17">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>1492.95</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -1642,8 +1650,14 @@
       <c r="F18">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>1473.04</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -1662,8 +1676,14 @@
       <c r="F19">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>1553.33</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -1682,8 +1702,14 @@
       <c r="F20">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>1563.5</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2022</v>
       </c>
@@ -1702,8 +1728,14 @@
       <c r="F21">
         <v>76</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>1536.99</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2022</v>
       </c>
@@ -1722,8 +1754,14 @@
       <c r="F22">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>1479.53</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2022</v>
       </c>
@@ -1742,8 +1780,14 @@
       <c r="F23">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>1627.48</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -1762,8 +1806,14 @@
       <c r="F24">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>1569.82</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2022</v>
       </c>
@@ -1782,8 +1832,14 @@
       <c r="F25">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>1393</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2022</v>
       </c>
@@ -1802,8 +1858,14 @@
       <c r="F26">
         <v>73</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>1475</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2022</v>
       </c>
@@ -1822,8 +1884,14 @@
       <c r="F27">
         <v>73</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>1492.2</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2022</v>
       </c>
@@ -1842,8 +1910,14 @@
       <c r="F28">
         <v>73</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>1440.19</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2022</v>
       </c>
@@ -1862,8 +1936,14 @@
       <c r="F29">
         <v>72</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>1488.72</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2022</v>
       </c>
@@ -1882,8 +1962,14 @@
       <c r="F30">
         <v>71</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>1434.68</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2022</v>
       </c>
@@ -1902,8 +1988,14 @@
       <c r="F31">
         <v>70</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>1405.6</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2022</v>
       </c>
@@ -1922,8 +2014,14 @@
       <c r="F32">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>1439.89</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2022</v>
       </c>
@@ -1942,8 +2040,14 @@
       <c r="F33">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>1396.55</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2022</v>
       </c>
@@ -1962,8 +2066,14 @@
       <c r="F34">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>1384.41</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2022</v>
       </c>
@@ -1982,8 +2092,14 @@
       <c r="F35">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <v>1305.06</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2022</v>
       </c>
@@ -2001,6 +2117,12 @@
       </c>
       <c r="F36">
         <v>68</v>
+      </c>
+      <c r="G36">
+        <v>1193.98</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2010,61 +2132,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="14" max="14" width="7.21875" customWidth="1"/>
+    <col min="15" max="15" width="7" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
-      <c r="B2" t="s">
-        <v>48</v>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C2">
         <v>87</v>
@@ -2078,11 +2220,17 @@
       <c r="F2">
         <v>86</v>
       </c>
+      <c r="G2">
+        <v>1431</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2090,13 +2238,19 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2018</v>
       </c>
-      <c r="B3" t="s">
-        <v>49</v>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C3">
         <v>85</v>
@@ -2110,6 +2264,15 @@
       <c r="F3">
         <v>86</v>
       </c>
+      <c r="G3" s="1">
+        <v>1558</v>
+      </c>
+      <c r="H3">
+        <v>71.427000000000007</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
       <c r="J3">
         <v>0</v>
       </c>
@@ -2122,12 +2285,18 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2018</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4">
@@ -2143,10 +2312,10 @@
         <v>85</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>1198</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>56.414999999999999</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -2155,21 +2324,27 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2018</v>
       </c>
-      <c r="B5" t="s">
-        <v>50</v>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C5">
         <v>84</v>
@@ -2183,8 +2358,17 @@
       <c r="F5">
         <v>85</v>
       </c>
+      <c r="G5">
+        <v>1126</v>
+      </c>
+      <c r="H5">
+        <v>106.998</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2195,13 +2379,19 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2018</v>
       </c>
-      <c r="B6" t="s">
-        <v>51</v>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C6">
         <v>86</v>
@@ -2215,8 +2405,14 @@
       <c r="F6">
         <v>84</v>
       </c>
+      <c r="G6">
+        <v>1241</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2227,12 +2423,18 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2018</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C7">
@@ -2247,8 +2449,17 @@
       <c r="F7">
         <v>84</v>
       </c>
+      <c r="G7">
+        <v>1274</v>
+      </c>
+      <c r="H7">
+        <v>47.247999999999998</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2259,13 +2470,19 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2018</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>86</v>
@@ -2280,10 +2497,10 @@
         <v>83</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>1298</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>38.5</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2295,18 +2512,24 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2018</v>
       </c>
-      <c r="B9" t="s">
-        <v>53</v>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C9">
         <v>81</v>
@@ -2320,6 +2543,15 @@
       <c r="F9">
         <v>82</v>
       </c>
+      <c r="G9">
+        <v>951</v>
+      </c>
+      <c r="H9">
+        <v>76.248999999999995</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
       <c r="J9">
         <v>0</v>
       </c>
@@ -2332,13 +2564,19 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2018</v>
       </c>
-      <c r="B10" t="s">
-        <v>54</v>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C10">
         <v>83</v>
@@ -2353,10 +2591,10 @@
         <v>81</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>1051</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>79.605000000000004</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2368,18 +2606,24 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2018</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>86</v>
@@ -2393,11 +2637,17 @@
       <c r="F11">
         <v>80</v>
       </c>
+      <c r="G11">
+        <v>1018</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2405,13 +2655,19 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2018</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>83</v>
@@ -2425,6 +2681,15 @@
       <c r="F12">
         <v>80</v>
       </c>
+      <c r="G12">
+        <v>1183</v>
+      </c>
+      <c r="H12">
+        <v>20.125</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
       <c r="J12">
         <v>0</v>
       </c>
@@ -2437,13 +2702,19 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2018</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>80</v>
@@ -2458,10 +2729,10 @@
         <v>80</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>945</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -2470,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -2478,13 +2749,19 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2018</v>
       </c>
-      <c r="B14" t="s">
-        <v>58</v>
+      <c r="B14" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="C14">
         <v>82</v>
@@ -2498,8 +2775,14 @@
       <c r="F14">
         <v>79</v>
       </c>
+      <c r="G14">
+        <v>986</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2510,13 +2793,19 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2018</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>81</v>
@@ -2530,8 +2819,14 @@
       <c r="F15">
         <v>79</v>
       </c>
+      <c r="G15">
+        <v>989</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2542,13 +2837,19 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2018</v>
       </c>
-      <c r="B16" t="s">
-        <v>60</v>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C16">
         <v>80</v>
@@ -2562,6 +2863,15 @@
       <c r="F16">
         <v>79</v>
       </c>
+      <c r="G16">
+        <v>981</v>
+      </c>
+      <c r="H16">
+        <v>29.748999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
       <c r="J16">
         <v>0</v>
       </c>
@@ -2574,13 +2884,19 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2018</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C17">
         <v>80</v>
@@ -2594,11 +2910,20 @@
       <c r="F17">
         <v>79</v>
       </c>
+      <c r="G17">
+        <v>457</v>
+      </c>
+      <c r="H17">
+        <v>53.381999999999998</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2606,13 +2931,19 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2018</v>
       </c>
-      <c r="B18" t="s">
-        <v>62</v>
+      <c r="B18" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C18">
         <v>78</v>
@@ -2626,6 +2957,12 @@
       <c r="F18">
         <v>78</v>
       </c>
+      <c r="G18">
+        <v>1135</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
       <c r="J18">
         <v>0</v>
       </c>
@@ -2638,13 +2975,19 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2018</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>77</v>
@@ -2658,8 +3001,17 @@
       <c r="F19">
         <v>78</v>
       </c>
+      <c r="G19">
+        <v>1051</v>
+      </c>
+      <c r="H19">
+        <v>25.95</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2670,13 +3022,19 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2018</v>
       </c>
-      <c r="B20" t="s">
-        <v>64</v>
+      <c r="B20" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="C20">
         <v>75</v>
@@ -2690,6 +3048,12 @@
       <c r="F20">
         <v>78</v>
       </c>
+      <c r="G20">
+        <v>751</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
       <c r="J20">
         <v>0</v>
       </c>
@@ -2702,13 +3066,19 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2018</v>
       </c>
-      <c r="B21" t="s">
-        <v>65</v>
+      <c r="B21" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="C21">
         <v>75</v>
@@ -2722,8 +3092,17 @@
       <c r="F21">
         <v>78</v>
       </c>
+      <c r="G21">
+        <v>1199</v>
+      </c>
+      <c r="H21">
+        <v>30.2</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2734,13 +3113,19 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2018</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>78</v>
@@ -2754,11 +3139,20 @@
       <c r="F22">
         <v>77</v>
       </c>
+      <c r="G22">
+        <v>880</v>
+      </c>
+      <c r="H22">
+        <v>19.975000000000001</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2766,13 +3160,19 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2018</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>80</v>
@@ -2786,6 +3186,15 @@
       <c r="F23">
         <v>76</v>
       </c>
+      <c r="G23">
+        <v>845</v>
+      </c>
+      <c r="H23">
+        <v>32.85</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
       <c r="J23">
         <v>0</v>
       </c>
@@ -2798,13 +3207,19 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2018</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>79</v>
@@ -2818,6 +3233,15 @@
       <c r="F24">
         <v>76</v>
       </c>
+      <c r="G24">
+        <v>706</v>
+      </c>
+      <c r="H24">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
       <c r="J24">
         <v>0</v>
       </c>
@@ -2830,13 +3254,19 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2018</v>
       </c>
-      <c r="B25" t="s">
-        <v>69</v>
+      <c r="B25" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="C25">
         <v>79</v>
@@ -2850,6 +3280,12 @@
       <c r="F25">
         <v>76</v>
       </c>
+      <c r="G25">
+        <v>1125</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
       <c r="J25">
         <v>0</v>
       </c>
@@ -2862,13 +3298,19 @@
       <c r="M25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2018</v>
       </c>
-      <c r="B26" t="s">
-        <v>70</v>
+      <c r="B26" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="C26">
         <v>77</v>
@@ -2882,6 +3324,12 @@
       <c r="F26">
         <v>76</v>
       </c>
+      <c r="G26">
+        <v>838</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
       <c r="J26">
         <v>0</v>
       </c>
@@ -2894,13 +3342,19 @@
       <c r="M26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2018</v>
       </c>
-      <c r="B27" t="s">
-        <v>71</v>
+      <c r="B27" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C27">
         <v>74</v>
@@ -2914,6 +3368,12 @@
       <c r="F27">
         <v>76</v>
       </c>
+      <c r="G27">
+        <v>686</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
       <c r="J27">
         <v>0</v>
       </c>
@@ -2926,13 +3386,19 @@
       <c r="M27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2018</v>
       </c>
-      <c r="B28" t="s">
-        <v>72</v>
+      <c r="B28" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="C28">
         <v>72</v>
@@ -2946,6 +3412,12 @@
       <c r="F28">
         <v>76</v>
       </c>
+      <c r="G28">
+        <v>649</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
       <c r="J28">
         <v>0</v>
       </c>
@@ -2958,13 +3430,19 @@
       <c r="M28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2018</v>
       </c>
-      <c r="B29" t="s">
-        <v>73</v>
+      <c r="B29" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="C29">
         <v>76</v>
@@ -2978,8 +3456,14 @@
       <c r="F29">
         <v>75</v>
       </c>
+      <c r="G29">
+        <v>521</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2990,13 +3474,19 @@
       <c r="M29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2018</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="C30">
         <v>76</v>
@@ -3010,6 +3500,12 @@
       <c r="F30">
         <v>75</v>
       </c>
+      <c r="G30">
+        <v>873</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
       <c r="J30">
         <v>0</v>
       </c>
@@ -3022,13 +3518,19 @@
       <c r="M30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2018</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>76</v>
@@ -3042,6 +3544,12 @@
       <c r="F31">
         <v>75</v>
       </c>
+      <c r="G31">
+        <v>953</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
       <c r="J31">
         <v>0</v>
       </c>
@@ -3054,13 +3562,19 @@
       <c r="M31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2018</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>75</v>
@@ -3074,6 +3588,15 @@
       <c r="F32">
         <v>75</v>
       </c>
+      <c r="G32">
+        <v>908</v>
+      </c>
+      <c r="H32">
+        <v>8.25</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
       <c r="J32">
         <v>0</v>
       </c>
@@ -3086,13 +3609,19 @@
       <c r="M32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2018</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="C33">
         <v>75</v>
@@ -3106,6 +3635,12 @@
       <c r="F33">
         <v>75</v>
       </c>
+      <c r="G33">
+        <v>777</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
       <c r="J33">
         <v>0</v>
       </c>
@@ -3118,13 +3653,19 @@
       <c r="M33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2018</v>
       </c>
-      <c r="B34" t="s">
-        <v>78</v>
+      <c r="B34" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C34">
         <v>75</v>
@@ -3138,6 +3679,12 @@
       <c r="F34">
         <v>75</v>
       </c>
+      <c r="G34">
+        <v>618</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
       <c r="J34">
         <v>0</v>
       </c>
@@ -3150,13 +3697,19 @@
       <c r="M34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2018</v>
       </c>
-      <c r="B35" t="s">
-        <v>79</v>
+      <c r="B35" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="C35">
         <v>75</v>
@@ -3170,6 +3723,15 @@
       <c r="F35">
         <v>75</v>
       </c>
+      <c r="G35">
+        <v>650</v>
+      </c>
+      <c r="H35">
+        <v>28.6</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
       <c r="J35">
         <v>0</v>
       </c>
@@ -3182,13 +3744,19 @@
       <c r="M35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2018</v>
       </c>
-      <c r="B36" t="s">
-        <v>80</v>
+      <c r="B36" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="C36">
         <v>76</v>
@@ -3202,6 +3770,12 @@
       <c r="F36">
         <v>74</v>
       </c>
+      <c r="G36">
+        <v>708</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
       <c r="J36">
         <v>0</v>
       </c>
@@ -3214,13 +3788,19 @@
       <c r="M36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2018</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="C37">
         <v>75</v>
@@ -3234,6 +3814,15 @@
       <c r="F37">
         <v>74</v>
       </c>
+      <c r="G37">
+        <v>660</v>
+      </c>
+      <c r="H37">
+        <v>18.625</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
       <c r="J37">
         <v>0</v>
       </c>
@@ -3246,13 +3835,19 @@
       <c r="M37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2018</v>
       </c>
-      <c r="B38" t="s">
-        <v>82</v>
+      <c r="B38" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="C38">
         <v>75</v>
@@ -3266,6 +3861,12 @@
       <c r="F38">
         <v>73</v>
       </c>
+      <c r="G38">
+        <v>910</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
       <c r="J38">
         <v>0</v>
       </c>
@@ -3278,13 +3879,19 @@
       <c r="M38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2018</v>
       </c>
-      <c r="B39" t="s">
-        <v>83</v>
+      <c r="B39" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="C39">
         <v>74</v>
@@ -3298,6 +3905,12 @@
       <c r="F39">
         <v>73</v>
       </c>
+      <c r="G39">
+        <v>544</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
       <c r="J39">
         <v>0</v>
       </c>
@@ -3310,13 +3923,19 @@
       <c r="M39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2018</v>
       </c>
-      <c r="B40" t="s">
-        <v>84</v>
+      <c r="B40" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C40">
         <v>74</v>
@@ -3330,6 +3949,12 @@
       <c r="F40">
         <v>73</v>
       </c>
+      <c r="G40">
+        <v>803</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
       <c r="J40">
         <v>0</v>
       </c>
@@ -3342,13 +3967,19 @@
       <c r="M40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2018</v>
       </c>
-      <c r="B41" t="s">
-        <v>85</v>
+      <c r="B41" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C41">
         <v>74</v>
@@ -3362,6 +3993,15 @@
       <c r="F41">
         <v>73</v>
       </c>
+      <c r="G41">
+        <v>596</v>
+      </c>
+      <c r="H41">
+        <v>17.425000000000001</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
       <c r="J41">
         <v>0</v>
       </c>
@@ -3374,13 +4014,19 @@
       <c r="M41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2018</v>
       </c>
-      <c r="B42" t="s">
-        <v>86</v>
+      <c r="B42" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C42">
         <v>73</v>
@@ -3394,6 +4040,15 @@
       <c r="F42">
         <v>73</v>
       </c>
+      <c r="G42">
+        <v>641</v>
+      </c>
+      <c r="H42">
+        <v>30.175000000000001</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
       <c r="J42">
         <v>0</v>
       </c>
@@ -3406,13 +4061,19 @@
       <c r="M42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2018</v>
       </c>
-      <c r="B43" t="s">
-        <v>87</v>
+      <c r="B43" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="C43">
         <v>69</v>
@@ -3426,6 +4087,12 @@
       <c r="F43">
         <v>73</v>
       </c>
+      <c r="G43">
+        <v>884</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
       <c r="J43">
         <v>0</v>
       </c>
@@ -3438,13 +4105,19 @@
       <c r="M43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2018</v>
       </c>
-      <c r="B44" t="s">
-        <v>88</v>
+      <c r="B44" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="C44">
         <v>74</v>
@@ -3458,6 +4131,15 @@
       <c r="F44">
         <v>72</v>
       </c>
+      <c r="G44">
+        <v>782</v>
+      </c>
+      <c r="H44">
+        <v>20.45</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
       <c r="J44">
         <v>0</v>
       </c>
@@ -3470,13 +4152,19 @@
       <c r="M44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2018</v>
       </c>
-      <c r="B45" t="s">
-        <v>89</v>
+      <c r="B45" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="C45">
         <v>72</v>
@@ -3490,6 +4178,12 @@
       <c r="F45">
         <v>72</v>
       </c>
+      <c r="G45">
+        <v>465</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
       <c r="J45">
         <v>0</v>
       </c>
@@ -3502,13 +4196,19 @@
       <c r="M45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2018</v>
       </c>
-      <c r="B46" t="s">
-        <v>90</v>
+      <c r="B46" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C46">
         <v>69</v>
@@ -3522,6 +4222,12 @@
       <c r="F46">
         <v>72</v>
       </c>
+      <c r="G46">
+        <v>718</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
       <c r="J46">
         <v>0</v>
       </c>
@@ -3534,13 +4240,19 @@
       <c r="M46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2018</v>
       </c>
-      <c r="B47" t="s">
-        <v>91</v>
+      <c r="B47" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C47">
         <v>70</v>
@@ -3554,6 +4266,12 @@
       <c r="F47">
         <v>69</v>
       </c>
+      <c r="G47">
+        <v>423</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
       <c r="J47">
         <v>0</v>
       </c>
@@ -3566,13 +4284,19 @@
       <c r="M47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2018</v>
       </c>
-      <c r="B48" t="s">
-        <v>92</v>
+      <c r="B48" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C48">
         <v>68</v>
@@ -3586,6 +4310,12 @@
       <c r="F48">
         <v>69</v>
       </c>
+      <c r="G48">
+        <v>571</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
       <c r="J48">
         <v>0</v>
       </c>
@@ -3598,8 +4328,14 @@
       <c r="M48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2018</v>
       </c>
@@ -3618,6 +4354,12 @@
       <c r="F49">
         <v>68</v>
       </c>
+      <c r="G49">
+        <v>411</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
       <c r="J49">
         <v>0</v>
       </c>
@@ -3630,13 +4372,19 @@
       <c r="M49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2018</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="C50">
         <v>71</v>
@@ -3650,6 +4398,12 @@
       <c r="F50">
         <v>68</v>
       </c>
+      <c r="G50">
+        <v>256</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
       <c r="J50">
         <v>0</v>
       </c>
@@ -3660,33 +4414,49 @@
         <v>0</v>
       </c>
       <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.21875" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3698,33 +4468,36 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2014</v>
       </c>
-      <c r="B2" t="s">
-        <v>50</v>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C2">
         <v>86</v>
@@ -3738,13 +4511,37 @@
       <c r="F2">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>1485</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2014</v>
       </c>
-      <c r="B3" t="s">
-        <v>48</v>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C3">
         <v>83</v>
@@ -3758,13 +4555,37 @@
       <c r="F3">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>1242</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2014</v>
       </c>
-      <c r="B4" t="s">
-        <v>49</v>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C4">
         <v>82</v>
@@ -3778,13 +4599,37 @@
       <c r="F4">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>1300</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2014</v>
       </c>
-      <c r="B5" t="s">
-        <v>51</v>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C5">
         <v>85</v>
@@ -3798,12 +4643,36 @@
       <c r="F5">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>1175</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2014</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C6">
@@ -3818,13 +4687,37 @@
       <c r="F6">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>913</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2014</v>
       </c>
-      <c r="B7" t="s">
-        <v>52</v>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C7">
         <v>75</v>
@@ -3838,13 +4731,37 @@
       <c r="F7">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>1074</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2014</v>
       </c>
-      <c r="B8" t="s">
-        <v>54</v>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C8">
         <v>85</v>
@@ -3858,12 +4775,36 @@
       <c r="F8">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>1090</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2014</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C9">
@@ -3878,13 +4819,37 @@
       <c r="F9">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>1189</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2014</v>
       </c>
-      <c r="B10" t="s">
-        <v>53</v>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C10">
         <v>79</v>
@@ -3898,13 +4863,37 @@
       <c r="F10">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>1104</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2014</v>
       </c>
-      <c r="B11" t="s">
-        <v>60</v>
+      <c r="B11" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C11">
         <v>84</v>
@@ -3918,13 +4907,37 @@
       <c r="F11">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>981</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2014</v>
       </c>
-      <c r="B12" t="s">
-        <v>68</v>
+      <c r="B12" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C12">
         <v>76</v>
@@ -3938,13 +4951,37 @@
       <c r="F12">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>722</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2014</v>
       </c>
-      <c r="B13" t="s">
-        <v>58</v>
+      <c r="B13" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C13">
         <v>77</v>
@@ -3958,13 +4995,37 @@
       <c r="F13">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>1137</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2014</v>
       </c>
-      <c r="B14" t="s">
-        <v>61</v>
+      <c r="B14" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="C14">
         <v>76</v>
@@ -3978,13 +5039,37 @@
       <c r="F14">
         <v>77</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>893</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2014</v>
       </c>
-      <c r="B15" t="s">
-        <v>55</v>
+      <c r="B15" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C15">
         <v>82</v>
@@ -3998,13 +5083,37 @@
       <c r="F15">
         <v>76</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>1147</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2014</v>
       </c>
-      <c r="B16" t="s">
-        <v>62</v>
+      <c r="B16" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C16">
         <v>77</v>
@@ -4018,13 +5127,37 @@
       <c r="F16">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>1026</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2014</v>
       </c>
-      <c r="B17" t="s">
-        <v>94</v>
+      <c r="B17" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="C17">
         <v>77</v>
@@ -4038,13 +5171,37 @@
       <c r="F17">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>809</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2014</v>
       </c>
-      <c r="B18" t="s">
-        <v>65</v>
+      <c r="B18" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="C18">
         <v>74</v>
@@ -4058,13 +5215,37 @@
       <c r="F18">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>1149</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2014</v>
       </c>
-      <c r="B19" t="s">
-        <v>66</v>
+      <c r="B19" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C19">
         <v>77</v>
@@ -4078,13 +5259,37 @@
       <c r="F19">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>741</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2014</v>
       </c>
-      <c r="B20" t="s">
-        <v>56</v>
+      <c r="B20" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C20">
         <v>77</v>
@@ -4098,13 +5303,37 @@
       <c r="F20">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>474</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2014</v>
       </c>
-      <c r="B21" t="s">
-        <v>95</v>
+      <c r="B21" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="C21">
         <v>75</v>
@@ -4118,13 +5347,37 @@
       <c r="F21">
         <v>75</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>558</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2014</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>73</v>
@@ -4138,13 +5391,37 @@
       <c r="F22">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>724</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2014</v>
       </c>
-      <c r="B23" t="s">
-        <v>59</v>
+      <c r="B23" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C23">
         <v>78</v>
@@ -4158,13 +5435,37 @@
       <c r="F23">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>882</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2014</v>
       </c>
-      <c r="B24" t="s">
-        <v>96</v>
+      <c r="B24" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="C24">
         <v>78</v>
@@ -4178,13 +5479,37 @@
       <c r="F24">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>575</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2014</v>
       </c>
-      <c r="B25" t="s">
-        <v>79</v>
+      <c r="B25" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="C25">
         <v>76</v>
@@ -4198,13 +5523,37 @@
       <c r="F25">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>1064</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2014</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <v>75</v>
@@ -4218,13 +5567,37 @@
       <c r="F26">
         <v>74</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>809</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2014</v>
       </c>
-      <c r="B27" t="s">
-        <v>74</v>
+      <c r="B27" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C27">
         <v>75</v>
@@ -4238,13 +5611,37 @@
       <c r="F27">
         <v>74</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>1035</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2014</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="C28">
         <v>75</v>
@@ -4258,13 +5655,37 @@
       <c r="F28">
         <v>73</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>473</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2014</v>
       </c>
-      <c r="B29" t="s">
-        <v>81</v>
+      <c r="B29" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C29">
         <v>75</v>
@@ -4278,13 +5699,37 @@
       <c r="F29">
         <v>73</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>786</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2014</v>
       </c>
-      <c r="B30" t="s">
-        <v>88</v>
+      <c r="B30" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="C30">
         <v>73</v>
@@ -4298,13 +5743,37 @@
       <c r="F30">
         <v>73</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>761</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2014</v>
       </c>
-      <c r="B31" t="s">
-        <v>67</v>
+      <c r="B31" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="C31">
         <v>72</v>
@@ -4318,13 +5787,37 @@
       <c r="F31">
         <v>73</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>643</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2014</v>
       </c>
-      <c r="B32" t="s">
-        <v>97</v>
+      <c r="B32" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="C32">
         <v>71</v>
@@ -4338,13 +5831,37 @@
       <c r="F32">
         <v>73</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>591</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2014</v>
       </c>
-      <c r="B33" t="s">
-        <v>75</v>
+      <c r="B33" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C33">
         <v>70</v>
@@ -4358,13 +5875,37 @@
       <c r="F33">
         <v>73</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>644</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2014</v>
       </c>
-      <c r="B34" t="s">
-        <v>69</v>
+      <c r="B34" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="C34">
         <v>77</v>
@@ -4378,13 +5919,37 @@
       <c r="F34">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>627</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2014</v>
       </c>
-      <c r="B35" t="s">
-        <v>83</v>
+      <c r="B35" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C35">
         <v>75</v>
@@ -4398,13 +5963,37 @@
       <c r="F35">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <v>547</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2014</v>
       </c>
-      <c r="B36" t="s">
-        <v>98</v>
+      <c r="B36" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C36">
         <v>73</v>
@@ -4418,13 +6007,37 @@
       <c r="F36">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <v>791</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2014</v>
       </c>
-      <c r="B37" t="s">
-        <v>85</v>
+      <c r="B37" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C37">
         <v>71</v>
@@ -4438,13 +6051,37 @@
       <c r="F37">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <v>562</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2014</v>
       </c>
-      <c r="B38" t="s">
-        <v>99</v>
+      <c r="B38" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="C38">
         <v>72</v>
@@ -4458,13 +6095,37 @@
       <c r="F38">
         <v>71</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <v>672</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2014</v>
       </c>
-      <c r="B39" t="s">
-        <v>84</v>
+      <c r="B39" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C39">
         <v>71</v>
@@ -4478,13 +6139,37 @@
       <c r="F39">
         <v>70</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <v>381</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2014</v>
       </c>
-      <c r="B40" t="s">
-        <v>90</v>
+      <c r="B40" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C40">
         <v>72</v>
@@ -4498,13 +6183,37 @@
       <c r="F40">
         <v>69</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <v>526</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2014</v>
       </c>
-      <c r="B41" t="s">
-        <v>72</v>
+      <c r="B41" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C41">
         <v>70</v>
@@ -4518,13 +6227,37 @@
       <c r="F41">
         <v>69</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41">
+        <v>715</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2014</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="C42">
         <v>69</v>
@@ -4538,13 +6271,37 @@
       <c r="F42">
         <v>69</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42">
+        <v>624</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2014</v>
       </c>
-      <c r="B43" t="s">
-        <v>101</v>
+      <c r="B43" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C43">
         <v>68</v>
@@ -4558,13 +6315,37 @@
       <c r="F43">
         <v>69</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43">
+        <v>532</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2014</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C44">
         <v>65</v>
@@ -4578,13 +6359,37 @@
       <c r="F44">
         <v>69</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44">
+        <v>496</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2014</v>
       </c>
-      <c r="B45" t="s">
-        <v>103</v>
+      <c r="B45" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="C45">
         <v>66</v>
@@ -4598,13 +6403,37 @@
       <c r="F45">
         <v>68</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45">
+        <v>425</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2014</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="C46">
         <v>65</v>
@@ -4618,13 +6447,37 @@
       <c r="F46">
         <v>65</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46">
+        <v>347</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2014</v>
       </c>
-      <c r="B47" t="s">
-        <v>104</v>
+      <c r="B47" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C47">
         <v>68</v>
@@ -4638,13 +6491,37 @@
       <c r="F47">
         <v>63</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47">
+        <v>483</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2014</v>
       </c>
-      <c r="B48" t="s">
-        <v>105</v>
+      <c r="B48" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C48">
         <v>59</v>
@@ -4657,6 +6534,30 @@
       </c>
       <c r="F48">
         <v>57</v>
+      </c>
+      <c r="G48">
+        <v>144</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4666,15 +6567,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.21875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="4.77734375" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4694,28 +6605,31 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -4734,8 +6648,32 @@
       <c r="F2">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>1565</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2010</v>
       </c>
@@ -4754,8 +6692,32 @@
       <c r="F3">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>1611</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -4774,8 +6736,32 @@
       <c r="F4">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>1076</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2010</v>
       </c>
@@ -4794,8 +6780,32 @@
       <c r="F5">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>1044</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2010</v>
       </c>
@@ -4814,8 +6824,32 @@
       <c r="F6">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>1184</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2010</v>
       </c>
@@ -4834,8 +6868,32 @@
       <c r="F7">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>1068</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2010</v>
       </c>
@@ -4854,8 +6912,32 @@
       <c r="F8">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>1082</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2010</v>
       </c>
@@ -4874,13 +6956,37 @@
       <c r="F9">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>1249</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2010</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>83</v>
@@ -4894,13 +7000,37 @@
       <c r="F10">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>1231</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2010</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="C11">
         <v>82</v>
@@ -4914,13 +7044,37 @@
       <c r="F11">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>1015</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2010</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C12">
         <v>84</v>
@@ -4934,8 +7088,32 @@
       <c r="F12">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>899</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2010</v>
       </c>
@@ -4954,13 +7132,37 @@
       <c r="F13">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>1041</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2010</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="C14">
         <v>78</v>
@@ -4974,8 +7176,32 @@
       <c r="F14">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>830</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2010</v>
       </c>
@@ -4994,8 +7220,32 @@
       <c r="F15">
         <v>78</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>793</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2010</v>
       </c>
@@ -5014,8 +7264,32 @@
       <c r="F16">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>761</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2010</v>
       </c>
@@ -5034,13 +7308,37 @@
       <c r="F17">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>895</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2010</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="C18">
         <v>80</v>
@@ -5054,8 +7352,32 @@
       <c r="F18">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>887</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2010</v>
       </c>
@@ -5074,8 +7396,32 @@
       <c r="F19">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>875</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2010</v>
       </c>
@@ -5094,13 +7440,37 @@
       <c r="F20">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>541</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2010</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="C21">
         <v>76</v>
@@ -5114,13 +7484,37 @@
       <c r="F21">
         <v>76</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>964</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2010</v>
       </c>
-      <c r="B22" t="s">
-        <v>111</v>
+      <c r="B22" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="C22">
         <v>75</v>
@@ -5134,13 +7528,37 @@
       <c r="F22">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>866</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2010</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C23">
         <v>79</v>
@@ -5154,8 +7572,32 @@
       <c r="F23">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>853</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -5174,12 +7616,36 @@
       <c r="F24">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>709</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2010</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C25">
@@ -5194,8 +7660,32 @@
       <c r="F25">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>882</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2010</v>
       </c>
@@ -5214,8 +7704,32 @@
       <c r="F26">
         <v>75</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>767</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2010</v>
       </c>
@@ -5234,8 +7748,32 @@
       <c r="F27">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>699</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2010</v>
       </c>
@@ -5254,13 +7792,37 @@
       <c r="F28">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>886</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2010</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C29">
         <v>75</v>
@@ -5274,8 +7836,32 @@
       <c r="F29">
         <v>75</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>820</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2010</v>
       </c>
@@ -5294,13 +7880,37 @@
       <c r="F30">
         <v>74</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>957</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2010</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="C31">
         <v>80</v>
@@ -5314,13 +7924,37 @@
       <c r="F31">
         <v>73</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>711</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2010</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="C32">
         <v>72</v>
@@ -5334,8 +7968,32 @@
       <c r="F32">
         <v>73</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>479</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2010</v>
       </c>
@@ -5354,8 +8012,32 @@
       <c r="F33">
         <v>72</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>584</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2010</v>
       </c>
@@ -5374,8 +8056,32 @@
       <c r="F34">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>565</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2010</v>
       </c>
@@ -5394,13 +8100,37 @@
       <c r="F35">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <v>561</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2010</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="C36">
         <v>72</v>
@@ -5414,13 +8144,37 @@
       <c r="F36">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <v>392</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2010</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="C37">
         <v>67</v>
@@ -5434,8 +8188,32 @@
       <c r="F37">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <v>694</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2010</v>
       </c>
@@ -5454,13 +8232,37 @@
       <c r="F38">
         <v>71</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <v>566</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2010</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="C39">
         <v>74</v>
@@ -5474,13 +8276,37 @@
       <c r="F39">
         <v>70</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <v>860</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2010</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="C40">
         <v>70</v>
@@ -5494,8 +8320,32 @@
       <c r="F40">
         <v>70</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <v>632</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2010</v>
       </c>
@@ -5514,8 +8364,32 @@
       <c r="F41">
         <v>66</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41">
+        <v>387</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2010</v>
       </c>
@@ -5533,6 +8407,30 @@
       </c>
       <c r="F42">
         <v>62</v>
+      </c>
+      <c r="G42">
+        <v>410</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5542,833 +8440,1810 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2006</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>92</v>
+      </c>
+      <c r="D2">
+        <v>89</v>
+      </c>
+      <c r="E2">
+        <v>86</v>
+      </c>
+      <c r="F2">
+        <v>89</v>
+      </c>
+      <c r="G2">
+        <v>827</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2006</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>92</v>
+      </c>
+      <c r="D3">
+        <v>88</v>
+      </c>
+      <c r="E3">
+        <v>84</v>
+      </c>
+      <c r="F3">
+        <v>87</v>
+      </c>
+      <c r="G3">
+        <v>749</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2006</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>88</v>
+      </c>
+      <c r="D4">
+        <v>84</v>
+      </c>
+      <c r="E4">
+        <v>88</v>
+      </c>
+      <c r="F4">
+        <v>87</v>
+      </c>
+      <c r="G4">
+        <v>728</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2006</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>86</v>
+      </c>
+      <c r="D5">
+        <v>86</v>
+      </c>
+      <c r="E5">
+        <v>85</v>
+      </c>
+      <c r="F5">
+        <v>87</v>
+      </c>
+      <c r="G5">
+        <v>756</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2006</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>91</v>
+      </c>
+      <c r="D6">
+        <v>85</v>
+      </c>
+      <c r="E6">
+        <v>86</v>
+      </c>
+      <c r="F6">
+        <v>86</v>
+      </c>
+      <c r="G6">
+        <v>741</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>86</v>
+      </c>
+      <c r="D7">
+        <v>86</v>
+      </c>
+      <c r="E7">
+        <v>83</v>
+      </c>
+      <c r="F7">
+        <v>84</v>
+      </c>
+      <c r="G7">
+        <v>750</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>87</v>
+      </c>
+      <c r="D8">
+        <v>81</v>
+      </c>
+      <c r="E8">
+        <v>85</v>
+      </c>
+      <c r="F8">
+        <v>83</v>
+      </c>
+      <c r="G8">
+        <v>746</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>85</v>
+      </c>
+      <c r="D9">
+        <v>81</v>
+      </c>
+      <c r="E9">
+        <v>82</v>
+      </c>
+      <c r="F9">
+        <v>83</v>
+      </c>
+      <c r="G9">
+        <v>696</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2006</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>85</v>
+      </c>
+      <c r="D10">
+        <v>75</v>
+      </c>
+      <c r="E10">
+        <v>79</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <v>772</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2006</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>80</v>
+      </c>
+      <c r="D11">
+        <v>81</v>
+      </c>
+      <c r="E11">
+        <v>77</v>
+      </c>
+      <c r="F11">
+        <v>80</v>
+      </c>
+      <c r="G11">
+        <v>671</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2006</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>82</v>
+      </c>
+      <c r="D12">
+        <v>79</v>
+      </c>
+      <c r="E12">
+        <v>78</v>
+      </c>
+      <c r="F12">
+        <v>79</v>
+      </c>
+      <c r="G12">
+        <v>736</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>83</v>
+      </c>
+      <c r="D13">
+        <v>78</v>
+      </c>
+      <c r="E13">
+        <v>77</v>
+      </c>
+      <c r="F13">
+        <v>78</v>
+      </c>
+      <c r="G13">
+        <v>626</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2006</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>80</v>
+      </c>
+      <c r="D14">
+        <v>74</v>
+      </c>
+      <c r="E14">
+        <v>81</v>
+      </c>
+      <c r="F14">
+        <v>78</v>
+      </c>
+      <c r="G14">
+        <v>686</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2006</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>85</v>
+      </c>
+      <c r="D15">
+        <v>74</v>
+      </c>
+      <c r="E15">
+        <v>76</v>
+      </c>
+      <c r="F15">
+        <v>77</v>
+      </c>
+      <c r="G15">
+        <v>709</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2006</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>79</v>
+      </c>
+      <c r="D16">
+        <v>75</v>
+      </c>
+      <c r="E16">
+        <v>78</v>
+      </c>
+      <c r="F16">
+        <v>77</v>
+      </c>
+      <c r="G16">
+        <v>648</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2006</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17">
+        <v>65</v>
+      </c>
+      <c r="D17">
+        <v>81</v>
+      </c>
+      <c r="E17">
+        <v>77</v>
+      </c>
+      <c r="F17">
+        <v>77</v>
+      </c>
+      <c r="G17">
+        <v>694</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2006</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18">
+        <v>84</v>
+      </c>
+      <c r="D18">
+        <v>77</v>
+      </c>
+      <c r="E18">
+        <v>72</v>
+      </c>
+      <c r="F18">
+        <v>76</v>
+      </c>
+      <c r="G18">
+        <v>689</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2006</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>83</v>
+      </c>
+      <c r="D19">
+        <v>73</v>
+      </c>
+      <c r="E19">
+        <v>72</v>
+      </c>
+      <c r="F19">
+        <v>76</v>
+      </c>
+      <c r="G19">
+        <v>612</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2006</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>83</v>
+      </c>
+      <c r="D20">
+        <v>72</v>
+      </c>
+      <c r="E20">
+        <v>76</v>
+      </c>
+      <c r="F20">
+        <v>75</v>
+      </c>
+      <c r="G20">
+        <v>736</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2006</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>74</v>
+      </c>
+      <c r="D21">
+        <v>77</v>
+      </c>
+      <c r="E21">
+        <v>74</v>
+      </c>
+      <c r="F21">
+        <v>75</v>
+      </c>
+      <c r="G21">
+        <v>756</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2006</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22">
+        <v>80</v>
+      </c>
+      <c r="D22">
+        <v>70</v>
+      </c>
+      <c r="E22">
+        <v>75</v>
+      </c>
+      <c r="F22">
+        <v>74</v>
+      </c>
+      <c r="G22">
+        <v>645</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2006</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23">
+        <v>77</v>
+      </c>
+      <c r="D23">
+        <v>69</v>
+      </c>
+      <c r="E23">
+        <v>75</v>
+      </c>
+      <c r="F23">
+        <v>74</v>
+      </c>
+      <c r="G23">
+        <v>599</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2006</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>72</v>
+      </c>
+      <c r="D24">
+        <v>73</v>
+      </c>
+      <c r="E24">
+        <v>76</v>
+      </c>
+      <c r="F24">
+        <v>74</v>
+      </c>
+      <c r="G24">
+        <v>576</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2006</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25">
+        <v>80</v>
+      </c>
+      <c r="D25">
+        <v>78</v>
+      </c>
+      <c r="E25">
+        <v>68</v>
+      </c>
+      <c r="F25">
+        <v>73</v>
+      </c>
+      <c r="G25">
+        <v>645</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2006</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>76</v>
+      </c>
+      <c r="D26">
+        <v>75</v>
+      </c>
+      <c r="E26">
+        <v>71</v>
+      </c>
+      <c r="F26">
+        <v>73</v>
+      </c>
+      <c r="G26">
+        <v>582</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2006</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27">
+        <v>75</v>
+      </c>
+      <c r="D27">
+        <v>76</v>
+      </c>
+      <c r="E27">
+        <v>70</v>
+      </c>
+      <c r="F27">
+        <v>73</v>
+      </c>
+      <c r="G27">
+        <v>726</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2006</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28">
+        <v>93</v>
+      </c>
+      <c r="D28">
+        <v>70</v>
+      </c>
+      <c r="E28">
+        <v>72</v>
+      </c>
+      <c r="F28">
+        <v>72</v>
+      </c>
+      <c r="G28">
+        <v>722</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2006</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29">
+        <v>74</v>
+      </c>
+      <c r="D29">
+        <v>69</v>
+      </c>
+      <c r="E29">
+        <v>71</v>
+      </c>
+      <c r="F29">
+        <v>72</v>
+      </c>
+      <c r="G29">
+        <v>677</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2006</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30">
+        <v>79</v>
+      </c>
+      <c r="D30">
+        <v>68</v>
+      </c>
+      <c r="E30">
+        <v>69</v>
+      </c>
+      <c r="F30">
+        <v>71</v>
+      </c>
+      <c r="G30">
+        <v>653</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2006</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>78</v>
+      </c>
+      <c r="D31">
+        <v>77</v>
+      </c>
+      <c r="E31">
+        <v>64</v>
+      </c>
+      <c r="F31">
+        <v>71</v>
+      </c>
+      <c r="G31">
+        <v>538</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2006</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>72</v>
+      </c>
+      <c r="D32">
+        <v>68</v>
+      </c>
+      <c r="E32">
+        <v>69</v>
+      </c>
+      <c r="F32">
+        <v>71</v>
+      </c>
+      <c r="G32">
+        <v>758</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2006</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33">
+        <v>70</v>
+      </c>
+      <c r="D33">
+        <v>67</v>
+      </c>
+      <c r="E33">
+        <v>73</v>
+      </c>
+      <c r="F33">
+        <v>71</v>
+      </c>
+      <c r="G33">
+        <v>531</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2006</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34">
+        <v>72</v>
+      </c>
+      <c r="D34">
+        <v>66</v>
+      </c>
+      <c r="E34">
+        <v>70</v>
+      </c>
+      <c r="F34">
+        <v>70</v>
+      </c>
+      <c r="G34">
+        <v>539</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2006</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35">
+        <v>69</v>
+      </c>
+      <c r="D35">
+        <v>66</v>
+      </c>
+      <c r="E35">
+        <v>73</v>
+      </c>
+      <c r="F35">
+        <v>70</v>
+      </c>
+      <c r="G35">
+        <v>685</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2006</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36">
+        <v>65</v>
+      </c>
+      <c r="D36">
+        <v>67</v>
+      </c>
+      <c r="E36">
+        <v>70</v>
+      </c>
+      <c r="F36">
+        <v>69</v>
+      </c>
+      <c r="G36">
+        <v>469</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2006</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37">
+        <v>69</v>
+      </c>
+      <c r="D37">
+        <v>70</v>
+      </c>
+      <c r="E37">
+        <v>68</v>
+      </c>
+      <c r="F37">
+        <v>67</v>
+      </c>
+      <c r="G37">
+        <v>693</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2006</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38">
+        <v>67</v>
+      </c>
+      <c r="D38">
+        <v>69</v>
+      </c>
+      <c r="E38">
+        <v>65</v>
+      </c>
+      <c r="F38">
+        <v>67</v>
+      </c>
+      <c r="G38">
+        <v>683</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2006</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39">
+        <v>70</v>
+      </c>
+      <c r="D39">
+        <v>66</v>
+      </c>
+      <c r="E39">
+        <v>62</v>
+      </c>
+      <c r="F39">
+        <v>65</v>
+      </c>
+      <c r="G39">
+        <v>545</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2006</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>66</v>
+      </c>
+      <c r="D40">
+        <v>59</v>
+      </c>
+      <c r="E40">
+        <v>63</v>
+      </c>
+      <c r="F40">
+        <v>63</v>
+      </c>
+      <c r="G40">
+        <v>535</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE716BD-EF58-40DE-8A8F-BEB21CCD69D7}">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2006</v>
-      </c>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2">
-        <v>92</v>
-      </c>
-      <c r="D2">
-        <v>89</v>
-      </c>
-      <c r="E2">
-        <v>86</v>
-      </c>
-      <c r="F2">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2006</v>
-      </c>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>92</v>
-      </c>
-      <c r="D3">
-        <v>88</v>
-      </c>
-      <c r="E3">
-        <v>84</v>
-      </c>
-      <c r="F3">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2006</v>
-      </c>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4">
-        <v>88</v>
-      </c>
-      <c r="D4">
-        <v>84</v>
-      </c>
-      <c r="E4">
-        <v>88</v>
-      </c>
-      <c r="F4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2006</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5">
-        <v>86</v>
-      </c>
-      <c r="D5">
-        <v>86</v>
-      </c>
-      <c r="E5">
-        <v>85</v>
-      </c>
-      <c r="F5">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2006</v>
-      </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6">
-        <v>91</v>
-      </c>
-      <c r="D6">
-        <v>85</v>
-      </c>
-      <c r="E6">
-        <v>86</v>
-      </c>
-      <c r="F6">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2006</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>86</v>
-      </c>
-      <c r="D7">
-        <v>86</v>
-      </c>
-      <c r="E7">
-        <v>83</v>
-      </c>
-      <c r="F7">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2006</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8">
-        <v>87</v>
-      </c>
-      <c r="D8">
-        <v>81</v>
-      </c>
-      <c r="E8">
-        <v>85</v>
-      </c>
-      <c r="F8">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2006</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9">
-        <v>85</v>
-      </c>
-      <c r="D9">
-        <v>81</v>
-      </c>
-      <c r="E9">
-        <v>82</v>
-      </c>
-      <c r="F9">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2006</v>
-      </c>
-      <c r="B10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10">
-        <v>85</v>
-      </c>
-      <c r="D10">
-        <v>75</v>
-      </c>
-      <c r="E10">
-        <v>79</v>
-      </c>
-      <c r="F10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2006</v>
-      </c>
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11">
-        <v>80</v>
-      </c>
-      <c r="D11">
-        <v>81</v>
-      </c>
-      <c r="E11">
-        <v>77</v>
-      </c>
-      <c r="F11">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2006</v>
-      </c>
-      <c r="B12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12">
-        <v>82</v>
-      </c>
-      <c r="D12">
-        <v>79</v>
-      </c>
-      <c r="E12">
-        <v>78</v>
-      </c>
-      <c r="F12">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2006</v>
-      </c>
-      <c r="B13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13">
-        <v>83</v>
-      </c>
-      <c r="D13">
-        <v>78</v>
-      </c>
-      <c r="E13">
-        <v>77</v>
-      </c>
-      <c r="F13">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2006</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14">
-        <v>80</v>
-      </c>
-      <c r="D14">
-        <v>74</v>
-      </c>
-      <c r="E14">
-        <v>81</v>
-      </c>
-      <c r="F14">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2006</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15">
-        <v>85</v>
-      </c>
-      <c r="D15">
-        <v>74</v>
-      </c>
-      <c r="E15">
-        <v>76</v>
-      </c>
-      <c r="F15">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2006</v>
-      </c>
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16">
-        <v>79</v>
-      </c>
-      <c r="D16">
-        <v>75</v>
-      </c>
-      <c r="E16">
-        <v>78</v>
-      </c>
-      <c r="F16">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>2006</v>
-      </c>
-      <c r="B17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17">
-        <v>65</v>
-      </c>
-      <c r="D17">
-        <v>81</v>
-      </c>
-      <c r="E17">
-        <v>77</v>
-      </c>
-      <c r="F17">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2006</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18">
-        <v>84</v>
-      </c>
-      <c r="D18">
-        <v>77</v>
-      </c>
-      <c r="E18">
-        <v>72</v>
-      </c>
-      <c r="F18">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>2006</v>
-      </c>
-      <c r="B19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19">
-        <v>83</v>
-      </c>
-      <c r="D19">
-        <v>73</v>
-      </c>
-      <c r="E19">
-        <v>72</v>
-      </c>
-      <c r="F19">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>2006</v>
-      </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20">
-        <v>83</v>
-      </c>
-      <c r="D20">
-        <v>72</v>
-      </c>
-      <c r="E20">
-        <v>76</v>
-      </c>
-      <c r="F20">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>2006</v>
-      </c>
-      <c r="B21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21">
-        <v>74</v>
-      </c>
-      <c r="D21">
-        <v>77</v>
-      </c>
-      <c r="E21">
-        <v>74</v>
-      </c>
-      <c r="F21">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>2006</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22">
-        <v>80</v>
-      </c>
-      <c r="D22">
-        <v>70</v>
-      </c>
-      <c r="E22">
-        <v>75</v>
-      </c>
-      <c r="F22">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>2006</v>
-      </c>
-      <c r="B23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23">
-        <v>77</v>
-      </c>
-      <c r="D23">
-        <v>69</v>
-      </c>
-      <c r="E23">
-        <v>75</v>
-      </c>
-      <c r="F23">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>2006</v>
-      </c>
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24">
-        <v>72</v>
-      </c>
-      <c r="D24">
-        <v>73</v>
-      </c>
-      <c r="E24">
-        <v>76</v>
-      </c>
-      <c r="F24">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2006</v>
-      </c>
-      <c r="B25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25">
-        <v>80</v>
-      </c>
-      <c r="D25">
-        <v>78</v>
-      </c>
-      <c r="E25">
-        <v>68</v>
-      </c>
-      <c r="F25">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>2006</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26">
-        <v>76</v>
-      </c>
-      <c r="D26">
-        <v>75</v>
-      </c>
-      <c r="E26">
         <v>71</v>
-      </c>
-      <c r="F26">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>2006</v>
-      </c>
-      <c r="B27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27">
-        <v>75</v>
-      </c>
-      <c r="D27">
-        <v>76</v>
-      </c>
-      <c r="E27">
-        <v>70</v>
-      </c>
-      <c r="F27">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>2006</v>
-      </c>
-      <c r="B28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28">
-        <v>93</v>
-      </c>
-      <c r="D28">
-        <v>70</v>
-      </c>
-      <c r="E28">
-        <v>72</v>
-      </c>
-      <c r="F28">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>2006</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29">
-        <v>74</v>
-      </c>
-      <c r="D29">
-        <v>69</v>
-      </c>
-      <c r="E29">
-        <v>71</v>
-      </c>
-      <c r="F29">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>2006</v>
-      </c>
-      <c r="B30" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30">
-        <v>79</v>
-      </c>
-      <c r="D30">
-        <v>68</v>
-      </c>
-      <c r="E30">
-        <v>69</v>
-      </c>
-      <c r="F30">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>2006</v>
-      </c>
-      <c r="B31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31">
-        <v>78</v>
-      </c>
-      <c r="D31">
-        <v>77</v>
-      </c>
-      <c r="E31">
-        <v>64</v>
-      </c>
-      <c r="F31">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>2006</v>
-      </c>
-      <c r="B32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32">
-        <v>72</v>
-      </c>
-      <c r="D32">
-        <v>68</v>
-      </c>
-      <c r="E32">
-        <v>69</v>
-      </c>
-      <c r="F32">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>2006</v>
-      </c>
-      <c r="B33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33">
-        <v>70</v>
-      </c>
-      <c r="D33">
-        <v>67</v>
-      </c>
-      <c r="E33">
-        <v>73</v>
-      </c>
-      <c r="F33">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>2006</v>
-      </c>
-      <c r="B34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34">
-        <v>72</v>
-      </c>
-      <c r="D34">
-        <v>66</v>
-      </c>
-      <c r="E34">
-        <v>70</v>
-      </c>
-      <c r="F34">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>2006</v>
-      </c>
-      <c r="B35" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35">
-        <v>69</v>
-      </c>
-      <c r="D35">
-        <v>66</v>
-      </c>
-      <c r="E35">
-        <v>73</v>
-      </c>
-      <c r="F35">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>2006</v>
-      </c>
-      <c r="B36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36">
-        <v>65</v>
-      </c>
-      <c r="D36">
-        <v>67</v>
-      </c>
-      <c r="E36">
-        <v>70</v>
-      </c>
-      <c r="F36">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>2006</v>
-      </c>
-      <c r="B37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37">
-        <v>69</v>
-      </c>
-      <c r="D37">
-        <v>70</v>
-      </c>
-      <c r="E37">
-        <v>68</v>
-      </c>
-      <c r="F37">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>2006</v>
-      </c>
-      <c r="B38" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38">
-        <v>67</v>
-      </c>
-      <c r="D38">
-        <v>69</v>
-      </c>
-      <c r="E38">
-        <v>65</v>
-      </c>
-      <c r="F38">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>2006</v>
-      </c>
-      <c r="B39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39">
-        <v>70</v>
-      </c>
-      <c r="D39">
-        <v>66</v>
-      </c>
-      <c r="E39">
-        <v>62</v>
-      </c>
-      <c r="F39">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>2006</v>
-      </c>
-      <c r="B40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40">
-        <v>66</v>
-      </c>
-      <c r="D40">
-        <v>59</v>
-      </c>
-      <c r="E40">
-        <v>63</v>
-      </c>
-      <c r="F40">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
